--- a/meta.xlsx
+++ b/meta.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5257" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5395" uniqueCount="498">
   <si>
     <t>Aerodyne Research Inc</t>
   </si>
@@ -1524,6 +1524,9 @@
   </si>
   <si>
     <t>As stated by maker</t>
+  </si>
+  <si>
+    <t>2900-01-01T00:00:00</t>
   </si>
 </sst>
 </file>
@@ -2274,10 +2277,10 @@
   <dimension ref="A1:AO1032"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AK2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="O126" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AP7" sqref="AP7"/>
+      <selection pane="bottomRight" activeCell="Q133" sqref="Q133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2468,8 +2471,8 @@
       <c r="O2" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P2" s="78">
-        <v>365245</v>
+      <c r="P2" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q2" s="55" t="s">
         <v>493</v>
@@ -2590,8 +2593,8 @@
       <c r="O3" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P3" s="78">
-        <v>365245</v>
+      <c r="P3" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q3" s="55" t="s">
         <v>493</v>
@@ -2712,8 +2715,8 @@
       <c r="O4" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P4" s="78">
-        <v>365245</v>
+      <c r="P4" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q4" s="55" t="s">
         <v>493</v>
@@ -2834,8 +2837,8 @@
       <c r="O5" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P5" s="78">
-        <v>365245</v>
+      <c r="P5" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q5" s="55" t="s">
         <v>493</v>
@@ -2956,8 +2959,8 @@
       <c r="O6" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P6" s="78">
-        <v>365245</v>
+      <c r="P6" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q6" s="55" t="s">
         <v>493</v>
@@ -3078,8 +3081,8 @@
       <c r="O7" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P7" s="78">
-        <v>365245</v>
+      <c r="P7" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q7" s="55" t="s">
         <v>493</v>
@@ -3200,8 +3203,8 @@
       <c r="O8" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P8" s="78">
-        <v>365245</v>
+      <c r="P8" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q8" s="55" t="s">
         <v>493</v>
@@ -3322,8 +3325,8 @@
       <c r="O9" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P9" s="78">
-        <v>365245</v>
+      <c r="P9" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q9" s="55" t="s">
         <v>493</v>
@@ -3444,8 +3447,8 @@
       <c r="O10" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P10" s="78">
-        <v>365245</v>
+      <c r="P10" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q10" s="55" t="s">
         <v>493</v>
@@ -3566,8 +3569,8 @@
       <c r="O11" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P11" s="78">
-        <v>365245</v>
+      <c r="P11" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q11" s="55" t="s">
         <v>493</v>
@@ -3688,8 +3691,8 @@
       <c r="O12" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P12" s="78">
-        <v>365245</v>
+      <c r="P12" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q12" s="55" t="s">
         <v>493</v>
@@ -3810,8 +3813,8 @@
       <c r="O13" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P13" s="78">
-        <v>365245</v>
+      <c r="P13" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q13" s="55" t="s">
         <v>493</v>
@@ -3932,8 +3935,8 @@
       <c r="O14" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P14" s="78">
-        <v>365245</v>
+      <c r="P14" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q14" s="55" t="s">
         <v>493</v>
@@ -4054,8 +4057,8 @@
       <c r="O15" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P15" s="78">
-        <v>365245</v>
+      <c r="P15" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q15" s="55" t="s">
         <v>493</v>
@@ -4176,8 +4179,8 @@
       <c r="O16" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P16" s="78">
-        <v>365245</v>
+      <c r="P16" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q16" s="55" t="s">
         <v>493</v>
@@ -4298,8 +4301,8 @@
       <c r="O17" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P17" s="78">
-        <v>365245</v>
+      <c r="P17" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q17" s="55" t="s">
         <v>493</v>
@@ -4420,8 +4423,8 @@
       <c r="O18" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P18" s="78">
-        <v>365245</v>
+      <c r="P18" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q18" s="55" t="s">
         <v>493</v>
@@ -4542,8 +4545,8 @@
       <c r="O19" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P19" s="78">
-        <v>365245</v>
+      <c r="P19" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q19" s="55" t="s">
         <v>493</v>
@@ -4664,8 +4667,8 @@
       <c r="O20" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P20" s="78">
-        <v>365245</v>
+      <c r="P20" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q20" s="55" t="s">
         <v>493</v>
@@ -4786,8 +4789,8 @@
       <c r="O21" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P21" s="78">
-        <v>365245</v>
+      <c r="P21" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q21" s="55" t="s">
         <v>493</v>
@@ -4908,8 +4911,8 @@
       <c r="O22" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P22" s="78">
-        <v>365245</v>
+      <c r="P22" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q22" s="55" t="s">
         <v>493</v>
@@ -5030,8 +5033,8 @@
       <c r="O23" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P23" s="78">
-        <v>365245</v>
+      <c r="P23" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q23" s="55" t="s">
         <v>493</v>
@@ -5152,8 +5155,8 @@
       <c r="O24" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P24" s="78">
-        <v>365245</v>
+      <c r="P24" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q24" s="55" t="s">
         <v>493</v>
@@ -5274,8 +5277,8 @@
       <c r="O25" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P25" s="78">
-        <v>365245</v>
+      <c r="P25" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q25" s="55" t="s">
         <v>493</v>
@@ -5396,8 +5399,8 @@
       <c r="O26" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P26" s="78">
-        <v>365245</v>
+      <c r="P26" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q26" s="55" t="s">
         <v>493</v>
@@ -5518,8 +5521,8 @@
       <c r="O27" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P27" s="78">
-        <v>365245</v>
+      <c r="P27" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q27" s="55" t="s">
         <v>493</v>
@@ -5640,8 +5643,8 @@
       <c r="O28" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P28" s="78">
-        <v>365245</v>
+      <c r="P28" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q28" s="55" t="s">
         <v>493</v>
@@ -5762,8 +5765,8 @@
       <c r="O29" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P29" s="78">
-        <v>365245</v>
+      <c r="P29" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q29" s="55" t="s">
         <v>493</v>
@@ -5884,8 +5887,8 @@
       <c r="O30" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P30" s="78">
-        <v>365245</v>
+      <c r="P30" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q30" s="55" t="s">
         <v>493</v>
@@ -6006,8 +6009,8 @@
       <c r="O31" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P31" s="78">
-        <v>365245</v>
+      <c r="P31" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q31" s="55" t="s">
         <v>493</v>
@@ -6128,8 +6131,8 @@
       <c r="O32" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P32" s="78">
-        <v>365245</v>
+      <c r="P32" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q32" s="55" t="s">
         <v>493</v>
@@ -6250,8 +6253,8 @@
       <c r="O33" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P33" s="78">
-        <v>365245</v>
+      <c r="P33" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q33" s="55" t="s">
         <v>493</v>
@@ -6372,8 +6375,8 @@
       <c r="O34" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P34" s="78">
-        <v>365245</v>
+      <c r="P34" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q34" s="55" t="s">
         <v>493</v>
@@ -6494,8 +6497,8 @@
       <c r="O35" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P35" s="78">
-        <v>365245</v>
+      <c r="P35" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q35" s="55" t="s">
         <v>493</v>
@@ -6616,8 +6619,8 @@
       <c r="O36" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P36" s="78">
-        <v>365245</v>
+      <c r="P36" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q36" s="55" t="s">
         <v>493</v>
@@ -6738,8 +6741,8 @@
       <c r="O37" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P37" s="78">
-        <v>365245</v>
+      <c r="P37" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q37" s="55" t="s">
         <v>493</v>
@@ -6860,8 +6863,8 @@
       <c r="O38" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P38" s="78">
-        <v>365245</v>
+      <c r="P38" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q38" s="55" t="s">
         <v>493</v>
@@ -6982,8 +6985,8 @@
       <c r="O39" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P39" s="78">
-        <v>365245</v>
+      <c r="P39" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q39" s="55" t="s">
         <v>493</v>
@@ -7104,8 +7107,8 @@
       <c r="O40" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P40" s="78">
-        <v>365245</v>
+      <c r="P40" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q40" s="55" t="s">
         <v>493</v>
@@ -7226,8 +7229,8 @@
       <c r="O41" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P41" s="78">
-        <v>365245</v>
+      <c r="P41" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q41" s="55" t="s">
         <v>493</v>
@@ -7348,8 +7351,8 @@
       <c r="O42" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P42" s="78">
-        <v>365245</v>
+      <c r="P42" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q42" s="55" t="s">
         <v>493</v>
@@ -7470,8 +7473,8 @@
       <c r="O43" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P43" s="78">
-        <v>365245</v>
+      <c r="P43" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q43" s="55" t="s">
         <v>493</v>
@@ -7592,8 +7595,8 @@
       <c r="O44" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P44" s="78">
-        <v>365245</v>
+      <c r="P44" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q44" s="55" t="s">
         <v>493</v>
@@ -7714,8 +7717,8 @@
       <c r="O45" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P45" s="78">
-        <v>365245</v>
+      <c r="P45" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q45" s="55" t="s">
         <v>493</v>
@@ -7836,8 +7839,8 @@
       <c r="O46" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P46" s="78">
-        <v>365245</v>
+      <c r="P46" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q46" s="55" t="s">
         <v>493</v>
@@ -7958,8 +7961,8 @@
       <c r="O47" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P47" s="78">
-        <v>365245</v>
+      <c r="P47" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q47" s="55" t="s">
         <v>493</v>
@@ -8080,8 +8083,8 @@
       <c r="O48" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P48" s="78">
-        <v>365245</v>
+      <c r="P48" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q48" s="55" t="s">
         <v>493</v>
@@ -8202,8 +8205,8 @@
       <c r="O49" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P49" s="78">
-        <v>365245</v>
+      <c r="P49" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q49" s="55" t="s">
         <v>493</v>
@@ -8324,8 +8327,8 @@
       <c r="O50" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P50" s="78">
-        <v>365245</v>
+      <c r="P50" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q50" s="55" t="s">
         <v>493</v>
@@ -8446,8 +8449,8 @@
       <c r="O51" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P51" s="78">
-        <v>365245</v>
+      <c r="P51" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q51" s="55" t="s">
         <v>493</v>
@@ -8568,8 +8571,8 @@
       <c r="O52" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P52" s="78">
-        <v>365245</v>
+      <c r="P52" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q52" s="55" t="s">
         <v>493</v>
@@ -8690,8 +8693,8 @@
       <c r="O53" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P53" s="78">
-        <v>365245</v>
+      <c r="P53" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q53" s="55" t="s">
         <v>493</v>
@@ -8812,8 +8815,8 @@
       <c r="O54" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P54" s="78">
-        <v>365245</v>
+      <c r="P54" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q54" s="55" t="s">
         <v>493</v>
@@ -8934,8 +8937,8 @@
       <c r="O55" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P55" s="78">
-        <v>365245</v>
+      <c r="P55" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q55" s="55" t="s">
         <v>493</v>
@@ -9056,8 +9059,8 @@
       <c r="O56" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P56" s="78">
-        <v>365245</v>
+      <c r="P56" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q56" s="55" t="s">
         <v>493</v>
@@ -9178,8 +9181,8 @@
       <c r="O57" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P57" s="78">
-        <v>365245</v>
+      <c r="P57" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q57" s="55" t="s">
         <v>493</v>
@@ -9300,8 +9303,8 @@
       <c r="O58" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P58" s="78">
-        <v>365245</v>
+      <c r="P58" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q58" s="55" t="s">
         <v>493</v>
@@ -9422,8 +9425,8 @@
       <c r="O59" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P59" s="78">
-        <v>365245</v>
+      <c r="P59" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q59" s="55" t="s">
         <v>493</v>
@@ -9544,8 +9547,8 @@
       <c r="O60" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P60" s="78">
-        <v>365245</v>
+      <c r="P60" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q60" s="55" t="s">
         <v>493</v>
@@ -9666,8 +9669,8 @@
       <c r="O61" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P61" s="78">
-        <v>365245</v>
+      <c r="P61" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q61" s="55" t="s">
         <v>493</v>
@@ -9788,8 +9791,8 @@
       <c r="O62" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P62" s="78">
-        <v>365245</v>
+      <c r="P62" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q62" s="55" t="s">
         <v>493</v>
@@ -9910,8 +9913,8 @@
       <c r="O63" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P63" s="78">
-        <v>365245</v>
+      <c r="P63" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q63" s="55" t="s">
         <v>493</v>
@@ -10030,8 +10033,8 @@
       <c r="O64" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P64" s="78">
-        <v>365245</v>
+      <c r="P64" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q64" s="55" t="s">
         <v>493</v>
@@ -10152,8 +10155,8 @@
       <c r="O65" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P65" s="78">
-        <v>365245</v>
+      <c r="P65" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q65" s="55" t="s">
         <v>493</v>
@@ -10274,8 +10277,8 @@
       <c r="O66" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P66" s="78">
-        <v>365245</v>
+      <c r="P66" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q66" s="55" t="s">
         <v>493</v>
@@ -10396,8 +10399,8 @@
       <c r="O67" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P67" s="78">
-        <v>365245</v>
+      <c r="P67" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q67" s="55" t="s">
         <v>493</v>
@@ -10518,8 +10521,8 @@
       <c r="O68" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P68" s="78">
-        <v>365245</v>
+      <c r="P68" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q68" s="55" t="s">
         <v>493</v>
@@ -10640,8 +10643,8 @@
       <c r="O69" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P69" s="78">
-        <v>365245</v>
+      <c r="P69" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q69" s="55" t="s">
         <v>493</v>
@@ -10762,8 +10765,8 @@
       <c r="O70" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P70" s="78">
-        <v>365245</v>
+      <c r="P70" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q70" s="55" t="s">
         <v>493</v>
@@ -10884,8 +10887,8 @@
       <c r="O71" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P71" s="78">
-        <v>365245</v>
+      <c r="P71" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q71" s="55" t="s">
         <v>493</v>
@@ -11006,8 +11009,8 @@
       <c r="O72" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P72" s="78">
-        <v>365245</v>
+      <c r="P72" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q72" s="55" t="s">
         <v>493</v>
@@ -11128,8 +11131,8 @@
       <c r="O73" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P73" s="78">
-        <v>365245</v>
+      <c r="P73" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q73" s="55" t="s">
         <v>493</v>
@@ -11250,8 +11253,8 @@
       <c r="O74" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P74" s="78">
-        <v>365245</v>
+      <c r="P74" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q74" s="55" t="s">
         <v>493</v>
@@ -11372,8 +11375,8 @@
       <c r="O75" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P75" s="78">
-        <v>365245</v>
+      <c r="P75" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q75" s="55" t="s">
         <v>493</v>
@@ -11494,8 +11497,8 @@
       <c r="O76" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P76" s="78">
-        <v>365245</v>
+      <c r="P76" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q76" s="55" t="s">
         <v>493</v>
@@ -11616,8 +11619,8 @@
       <c r="O77" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P77" s="78">
-        <v>365245</v>
+      <c r="P77" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q77" s="55" t="s">
         <v>493</v>
@@ -11738,8 +11741,8 @@
       <c r="O78" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P78" s="78">
-        <v>365245</v>
+      <c r="P78" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q78" s="55" t="s">
         <v>493</v>
@@ -11861,8 +11864,8 @@
       <c r="O79" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P79" s="78">
-        <v>365245</v>
+      <c r="P79" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q79" s="55" t="s">
         <v>493</v>
@@ -11983,8 +11986,8 @@
       <c r="O80" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P80" s="78">
-        <v>365245</v>
+      <c r="P80" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q80" s="55" t="s">
         <v>493</v>
@@ -12105,8 +12108,8 @@
       <c r="O81" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P81" s="78">
-        <v>365245</v>
+      <c r="P81" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q81" s="55" t="s">
         <v>493</v>
@@ -12227,8 +12230,8 @@
       <c r="O82" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P82" s="78">
-        <v>365245</v>
+      <c r="P82" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q82" s="55" t="s">
         <v>493</v>
@@ -12349,8 +12352,8 @@
       <c r="O83" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P83" s="78">
-        <v>365245</v>
+      <c r="P83" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q83" s="55" t="s">
         <v>493</v>
@@ -12471,8 +12474,8 @@
       <c r="O84" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P84" s="78">
-        <v>365245</v>
+      <c r="P84" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q84" s="55" t="s">
         <v>493</v>
@@ -12593,8 +12596,8 @@
       <c r="O85" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P85" s="78">
-        <v>365245</v>
+      <c r="P85" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q85" s="55" t="s">
         <v>493</v>
@@ -12715,8 +12718,8 @@
       <c r="O86" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P86" s="78">
-        <v>365245</v>
+      <c r="P86" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q86" s="55" t="s">
         <v>493</v>
@@ -12837,8 +12840,8 @@
       <c r="O87" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P87" s="78">
-        <v>365245</v>
+      <c r="P87" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q87" s="55" t="s">
         <v>493</v>
@@ -12959,8 +12962,8 @@
       <c r="O88" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P88" s="78">
-        <v>365245</v>
+      <c r="P88" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q88" s="55" t="s">
         <v>493</v>
@@ -13081,8 +13084,8 @@
       <c r="O89" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P89" s="78">
-        <v>365245</v>
+      <c r="P89" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q89" s="55" t="s">
         <v>493</v>
@@ -13203,8 +13206,8 @@
       <c r="O90" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P90" s="78">
-        <v>365245</v>
+      <c r="P90" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q90" s="55" t="s">
         <v>493</v>
@@ -13325,8 +13328,8 @@
       <c r="O91" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P91" s="78">
-        <v>365245</v>
+      <c r="P91" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q91" s="55" t="s">
         <v>493</v>
@@ -13447,8 +13450,8 @@
       <c r="O92" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P92" s="78">
-        <v>365245</v>
+      <c r="P92" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q92" s="55" t="s">
         <v>493</v>
@@ -13569,8 +13572,8 @@
       <c r="O93" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P93" s="78">
-        <v>365245</v>
+      <c r="P93" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q93" s="55" t="s">
         <v>493</v>
@@ -13691,8 +13694,8 @@
       <c r="O94" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P94" s="78">
-        <v>365245</v>
+      <c r="P94" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q94" s="55" t="s">
         <v>493</v>
@@ -13813,8 +13816,8 @@
       <c r="O95" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P95" s="78">
-        <v>365245</v>
+      <c r="P95" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q95" s="55" t="s">
         <v>493</v>
@@ -13935,8 +13938,8 @@
       <c r="O96" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P96" s="78">
-        <v>365245</v>
+      <c r="P96" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q96" s="55" t="s">
         <v>493</v>
@@ -14057,8 +14060,8 @@
       <c r="O97" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P97" s="78">
-        <v>365245</v>
+      <c r="P97" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q97" s="55" t="s">
         <v>493</v>
@@ -14179,8 +14182,8 @@
       <c r="O98" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P98" s="78">
-        <v>365245</v>
+      <c r="P98" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q98" s="55" t="s">
         <v>493</v>
@@ -14301,8 +14304,8 @@
       <c r="O99" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P99" s="78">
-        <v>365245</v>
+      <c r="P99" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q99" s="55" t="s">
         <v>493</v>
@@ -14423,8 +14426,8 @@
       <c r="O100" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P100" s="78">
-        <v>365245</v>
+      <c r="P100" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q100" s="55" t="s">
         <v>493</v>
@@ -14545,8 +14548,8 @@
       <c r="O101" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P101" s="78">
-        <v>365245</v>
+      <c r="P101" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q101" s="55" t="s">
         <v>493</v>
@@ -14667,8 +14670,8 @@
       <c r="O102" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P102" s="78">
-        <v>365245</v>
+      <c r="P102" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q102" s="55" t="s">
         <v>493</v>
@@ -14789,8 +14792,8 @@
       <c r="O103" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P103" s="78">
-        <v>365245</v>
+      <c r="P103" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q103" s="55" t="s">
         <v>493</v>
@@ -14911,8 +14914,8 @@
       <c r="O104" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P104" s="78">
-        <v>365245</v>
+      <c r="P104" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q104" s="55" t="s">
         <v>493</v>
@@ -15033,8 +15036,8 @@
       <c r="O105" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P105" s="78">
-        <v>365245</v>
+      <c r="P105" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q105" s="55" t="s">
         <v>493</v>
@@ -15155,8 +15158,8 @@
       <c r="O106" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P106" s="78">
-        <v>365245</v>
+      <c r="P106" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q106" s="55" t="s">
         <v>493</v>
@@ -15277,8 +15280,8 @@
       <c r="O107" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P107" s="78">
-        <v>365245</v>
+      <c r="P107" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q107" s="55" t="s">
         <v>493</v>
@@ -15399,8 +15402,8 @@
       <c r="O108" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P108" s="78">
-        <v>365245</v>
+      <c r="P108" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q108" s="55" t="s">
         <v>493</v>
@@ -15521,8 +15524,8 @@
       <c r="O109" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P109" s="78">
-        <v>365245</v>
+      <c r="P109" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q109" s="55" t="s">
         <v>493</v>
@@ -15643,8 +15646,8 @@
       <c r="O110" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P110" s="78">
-        <v>365245</v>
+      <c r="P110" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q110" s="55" t="s">
         <v>493</v>
@@ -15765,8 +15768,8 @@
       <c r="O111" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P111" s="78">
-        <v>365245</v>
+      <c r="P111" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q111" s="55" t="s">
         <v>493</v>
@@ -15887,8 +15890,8 @@
       <c r="O112" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P112" s="78">
-        <v>365245</v>
+      <c r="P112" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q112" s="55" t="s">
         <v>493</v>
@@ -16009,8 +16012,8 @@
       <c r="O113" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P113" s="78">
-        <v>365245</v>
+      <c r="P113" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q113" s="55" t="s">
         <v>493</v>
@@ -16131,8 +16134,8 @@
       <c r="O114" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P114" s="78">
-        <v>365245</v>
+      <c r="P114" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q114" s="55" t="s">
         <v>493</v>
@@ -16253,8 +16256,8 @@
       <c r="O115" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P115" s="78">
-        <v>365245</v>
+      <c r="P115" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q115" s="55" t="s">
         <v>493</v>
@@ -16375,8 +16378,8 @@
       <c r="O116" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P116" s="78">
-        <v>365245</v>
+      <c r="P116" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q116" s="55" t="s">
         <v>493</v>
@@ -16497,8 +16500,8 @@
       <c r="O117" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P117" s="78">
-        <v>365245</v>
+      <c r="P117" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q117" s="55" t="s">
         <v>493</v>
@@ -16619,8 +16622,8 @@
       <c r="O118" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P118" s="78">
-        <v>365245</v>
+      <c r="P118" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q118" s="55" t="s">
         <v>493</v>
@@ -16741,8 +16744,8 @@
       <c r="O119" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P119" s="78">
-        <v>365245</v>
+      <c r="P119" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q119" s="55" t="s">
         <v>493</v>
@@ -16863,8 +16866,8 @@
       <c r="O120" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P120" s="78">
-        <v>365245</v>
+      <c r="P120" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q120" s="55" t="s">
         <v>493</v>
@@ -16985,8 +16988,8 @@
       <c r="O121" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P121" s="78">
-        <v>365245</v>
+      <c r="P121" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q121" s="55" t="s">
         <v>493</v>
@@ -17107,8 +17110,8 @@
       <c r="O122" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P122" s="78">
-        <v>365245</v>
+      <c r="P122" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q122" s="55" t="s">
         <v>493</v>
@@ -17229,8 +17232,8 @@
       <c r="O123" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P123" s="78">
-        <v>365245</v>
+      <c r="P123" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q123" s="55" t="s">
         <v>493</v>
@@ -17351,8 +17354,8 @@
       <c r="O124" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P124" s="78">
-        <v>365245</v>
+      <c r="P124" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q124" s="55" t="s">
         <v>493</v>
@@ -17473,8 +17476,8 @@
       <c r="O125" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P125" s="78">
-        <v>365245</v>
+      <c r="P125" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q125" s="55" t="s">
         <v>493</v>
@@ -17595,8 +17598,8 @@
       <c r="O126" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P126" s="78">
-        <v>365245</v>
+      <c r="P126" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q126" s="55" t="s">
         <v>493</v>
@@ -17717,8 +17720,8 @@
       <c r="O127" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P127" s="78">
-        <v>365245</v>
+      <c r="P127" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q127" s="55" t="s">
         <v>493</v>
@@ -17839,8 +17842,8 @@
       <c r="O128" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P128" s="78">
-        <v>365245</v>
+      <c r="P128" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q128" s="55" t="s">
         <v>493</v>
@@ -17961,8 +17964,8 @@
       <c r="O129" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P129" s="78">
-        <v>365245</v>
+      <c r="P129" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q129" s="55" t="s">
         <v>493</v>
@@ -18083,8 +18086,8 @@
       <c r="O130" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P130" s="78">
-        <v>365245</v>
+      <c r="P130" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q130" s="55" t="s">
         <v>493</v>
@@ -18205,8 +18208,8 @@
       <c r="O131" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P131" s="78">
-        <v>365245</v>
+      <c r="P131" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q131" s="55" t="s">
         <v>493</v>
@@ -18327,8 +18330,8 @@
       <c r="O132" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P132" s="78">
-        <v>365245</v>
+      <c r="P132" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q132" s="55" t="s">
         <v>493</v>
@@ -18449,8 +18452,8 @@
       <c r="O133" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P133" s="78">
-        <v>365245</v>
+      <c r="P133" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q133" s="55" t="s">
         <v>493</v>
@@ -18571,8 +18574,8 @@
       <c r="O134" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P134" s="78">
-        <v>365245</v>
+      <c r="P134" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q134" s="55" t="s">
         <v>493</v>
@@ -18693,8 +18696,8 @@
       <c r="O135" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P135" s="78">
-        <v>365245</v>
+      <c r="P135" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q135" s="55" t="s">
         <v>493</v>
@@ -18815,8 +18818,8 @@
       <c r="O136" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P136" s="78">
-        <v>365245</v>
+      <c r="P136" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q136" s="55" t="s">
         <v>493</v>
@@ -18937,8 +18940,8 @@
       <c r="O137" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P137" s="78">
-        <v>365245</v>
+      <c r="P137" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q137" s="55" t="s">
         <v>493</v>
@@ -19059,8 +19062,8 @@
       <c r="O138" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P138" s="78">
-        <v>365245</v>
+      <c r="P138" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q138" s="55" t="s">
         <v>493</v>
@@ -19181,8 +19184,8 @@
       <c r="O139" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="P139" s="78">
-        <v>365245</v>
+      <c r="P139" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="Q139" s="55" t="s">
         <v>493</v>
